--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T07:33:44+00:00</t>
+    <t>2025-10-17T12:45:54+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T12:45:54+00:00</t>
+    <t>2025-10-17T12:47:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T12:47:41+00:00</t>
+    <t>2025-10-17T13:37:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-17T13:37:49+00:00</t>
+    <t>2025-10-23T07:38:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T07:38:48+00:00</t>
+    <t>2025-10-23T09:27:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T09:27:39+00:00</t>
+    <t>2025-10-23T10:03:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T10:03:30+00:00</t>
+    <t>2025-10-23T11:11:53+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T11:11:53+00:00</t>
+    <t>2025-10-23T12:03:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:03:29+00:00</t>
+    <t>2025-10-23T12:14:06+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:14:06+00:00</t>
+    <t>2025-10-23T12:40:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:40:30+00:00</t>
+    <t>2025-10-23T12:50:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T12:50:40+00:00</t>
+    <t>2025-10-23T13:57:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="126">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T13:57:04+00:00</t>
+    <t>2025-10-23T15:44:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -398,16 +398,6 @@
   </si>
   <si>
     <t>Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) à la situation d'exercice.</t>
-  </si>
-  <si>
-    <t>SituationExercice.exerciceProfessionnel</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel)
-</t>
-  </si>
-  <si>
-    <t>Lien vers la classe ExerciceProfessionnel.</t>
   </si>
 </sst>
 </file>
@@ -712,7 +702,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AJ18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -731,7 +721,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="72.30859375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="61.37109375" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2548,106 +2538,6 @@
         <v>71</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="B19" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="C19" s="2"/>
-      <c r="D19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="E19" s="2"/>
-      <c r="F19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="G19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="H19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="K19" t="s" s="2">
-        <v>127</v>
-      </c>
-      <c r="L19" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>128</v>
-      </c>
-      <c r="N19" s="2"/>
-      <c r="O19" s="2"/>
-      <c r="P19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Q19" s="2"/>
-      <c r="R19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="S19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="T19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="U19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="V19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="W19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="X19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Y19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="Z19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AA19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>126</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>71</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>71</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-23T15:44:08+00:00</t>
+    <t>2025-10-28T09:35:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="129">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T09:35:07+00:00</t>
+    <t>2025-10-28T11:41:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -398,6 +398,16 @@
   </si>
   <si>
     <t>Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) à la situation d'exercice.</t>
+  </si>
+  <si>
+    <t>SituationExercice.exerciceProfessionnel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe ExerciceProfessionnel.</t>
   </si>
 </sst>
 </file>
@@ -702,7 +712,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ18"/>
+  <dimension ref="A1:AJ19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -721,7 +731,7 @@
     <col min="8" max="8" width="13.953125" customWidth="true" bestFit="true"/>
     <col min="9" max="9" width="11.3671875" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="61.37109375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="63.0625" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
@@ -2538,6 +2548,106 @@
         <v>71</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="C19" s="2"/>
+      <c r="D19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E19" s="2"/>
+      <c r="F19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K19" t="s" s="2">
+        <v>127</v>
+      </c>
+      <c r="L19" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="M19" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="N19" s="2"/>
+      <c r="O19" s="2"/>
+      <c r="P19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q19" s="2"/>
+      <c r="R19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T11:41:28+00:00</t>
+    <t>2025-10-28T14:16:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T14:16:13+00:00</t>
+    <t>2025-10-28T15:15:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-28T15:15:51+00:00</t>
+    <t>2025-10-29T10:18:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T10:18:40+00:00</t>
+    <t>2025-10-29T11:46:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -400,14 +400,14 @@
     <t>Boîte(s) aux lettres du service de messagerie sécurisée de santé (MSS) rattachée(s) à la situation d'exercice.</t>
   </si>
   <si>
-    <t>SituationExercice.exerciceProfessionnel</t>
+    <t>SituationExercice.ExerciceProfessionnel</t>
   </si>
   <si>
     <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/ExerciceProfessionnel
 </t>
   </si>
   <si>
-    <t>Lien vers la classe ExerciceProfessionnel.</t>
+    <t>Lien vers la classe ExerciceProfessionnel</t>
   </si>
 </sst>
 </file>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="621" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="652" uniqueCount="132">
   <si>
     <t>Property</t>
   </si>
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T11:46:56+00:00</t>
+    <t>2025-10-29T12:55:39+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -408,6 +408,16 @@
   </si>
   <si>
     <t>Lien vers la classe ExerciceProfessionnel</t>
+  </si>
+  <si>
+    <t>SituationExercice.EntiteGeographique</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://interop.esante.gouv.fr/ig/mos/StructureDefinition/EntiteGeographique
+</t>
+  </si>
+  <si>
+    <t>Lien vers la classe EntiteGeographique</t>
   </si>
 </sst>
 </file>
@@ -712,7 +722,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AJ19"/>
+  <dimension ref="A1:AJ20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -2648,6 +2658,106 @@
         <v>71</v>
       </c>
     </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="C20" s="2"/>
+      <c r="D20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="E20" s="2"/>
+      <c r="F20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="G20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="J20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="K20" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="L20" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="M20" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="N20" s="2"/>
+      <c r="O20" s="2"/>
+      <c r="P20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Q20" s="2"/>
+      <c r="R20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="S20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="T20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="U20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="V20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="W20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="X20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Y20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="Z20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AA20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AB20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AC20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AD20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AE20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AF20" t="s" s="2">
+        <v>129</v>
+      </c>
+      <c r="AG20" t="s" s="2">
+        <v>72</v>
+      </c>
+      <c r="AH20" t="s" s="2">
+        <v>77</v>
+      </c>
+      <c r="AI20" t="s" s="2">
+        <v>71</v>
+      </c>
+      <c r="AJ20" t="s" s="2">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T12:55:39+00:00</t>
+    <t>2025-10-29T15:03:41+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-29T15:03:41+00:00</t>
+    <t>2025-10-30T13:09:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T13:09:51+00:00</t>
+    <t>2025-10-30T14:07:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:07:11+00:00</t>
+    <t>2025-10-30T14:16:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T14:16:37+00:00</t>
+    <t>2025-10-30T15:20:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T15:20:59+00:00</t>
+    <t>2025-10-30T16:36:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:36:55+00:00</t>
+    <t>2025-10-30T16:59:08+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-10-30T16:59:08+00:00</t>
+    <t>2025-11-03T11:12:25+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:12:25+00:00</t>
+    <t>2025-11-03T11:13:02+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T11:13:02+00:00</t>
+    <t>2025-11-03T13:49:33+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T13:49:33+00:00</t>
+    <t>2025-11-03T18:48:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-03T18:48:51+00:00</t>
+    <t>2025-11-04T13:35:30+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T13:35:30+00:00</t>
+    <t>2025-11-04T14:33:37+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-04T14:33:37+00:00</t>
+    <t>2025-11-05T10:41:12+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-05T10:41:12+00:00</t>
+    <t>2025-11-07T16:48:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-07T16:48:20+00:00</t>
+    <t>2025-11-14T16:26:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:26:13+00:00</t>
+    <t>2025-11-14T16:42:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-14T16:42:42+00:00</t>
+    <t>2025-11-25T14:31:44+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:31:44+00:00</t>
+    <t>2025-11-25T14:47:14+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-25T14:47:14+00:00</t>
+    <t>2025-11-27T15:07:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T15:07:49+00:00</t>
+    <t>2025-11-27T17:02:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-27T17:02:40+00:00</t>
+    <t>2025-12-02T09:57:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T09:57:01+00:00</t>
+    <t>2025-12-02T14:07:59+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:07:59+00:00</t>
+    <t>2025-12-02T14:23:57+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:23:57+00:00</t>
+    <t>2025-12-02T14:53:18+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ML/ig/StructureDefinition-SituationExercice.xlsx
+++ b/ML/ig/StructureDefinition-SituationExercice.xlsx
@@ -54,7 +54,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-12-02T14:53:18+00:00</t>
+    <t>2025-12-02T15:33:27+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
